--- a/Team-Data/2012-13/3-29-2012-13.xlsx
+++ b/Team-Data/2012-13/3-29-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.548</v>
+        <v>0.556</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
@@ -693,19 +760,19 @@
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
@@ -729,28 +796,28 @@
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -798,19 +865,19 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.528</v>
+        <v>0.521</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
         <v>16.6</v>
@@ -887,13 +954,13 @@
         <v>21.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>8.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>39.6</v>
@@ -908,25 +975,25 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -947,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>18</v>
@@ -977,28 +1044,28 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
         <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.583</v>
+        <v>0.592</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1051,7 +1118,7 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
@@ -1060,31 +1127,31 @@
         <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
         <v>17.4</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.732</v>
+        <v>0.737</v>
       </c>
       <c r="R4" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
         <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1096,19 +1163,19 @@
         <v>4.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1138,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,25 +1229,25 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="n">
-        <v>0.236</v>
+        <v>0.239</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
         <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q5" t="n">
         <v>0.747</v>
@@ -1257,10 +1324,10 @@
         <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U5" t="n">
         <v>19.1</v>
@@ -1275,34 +1342,34 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>22</v>
@@ -1529,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1544,10 +1611,10 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1600,22 +1667,22 @@
         <v>0.434</v>
       </c>
       <c r="L7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>12.3</v>
@@ -1624,7 +1691,7 @@
         <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U7" t="n">
         <v>20.6</v>
@@ -1642,19 +1709,19 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1690,13 +1757,13 @@
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1708,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1720,10 +1787,10 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>40.5</v>
       </c>
       <c r="J9" t="n">
-        <v>84.90000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L9" t="n">
         <v>6.3</v>
@@ -1970,34 +2037,34 @@
         <v>18.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
         <v>24.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2006,7 +2073,7 @@
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
@@ -2015,7 +2082,7 @@
         <v>105.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -2024,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
         <v>21</v>
@@ -2066,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,7 +2210,7 @@
         <v>81.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,7 +2219,7 @@
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
@@ -2161,25 +2228,25 @@
         <v>22.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.697</v>
+        <v>0.698</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.1</v>
@@ -2188,19 +2255,19 @@
         <v>5.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.1</v>
+        <v>-4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2221,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2254,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2269,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2394,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2421,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2430,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
         <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>0.542</v>
+        <v>0.549</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2528,16 +2595,16 @@
         <v>0.756</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2549,28 +2616,28 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2585,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
         <v>8</v>
@@ -2603,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,10 +2822,10 @@
         <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,34 +2938,34 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P14" t="n">
         <v>23.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.707</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
@@ -2925,19 +2992,19 @@
         <v>100.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2949,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -2973,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT14" t="n">
         <v>19</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>0.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -3122,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3158,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
         <v>81.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3253,7 +3320,7 @@
         <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
         <v>13.2</v>
@@ -3283,37 +3350,37 @@
         <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,7 +3392,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3340,16 +3407,16 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>14</v>
@@ -3361,7 +3428,7 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,58 +3463,58 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.792</v>
+        <v>0.789</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,7 +3523,7 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3468,13 +3535,13 @@
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
         <v>9</v>
@@ -3513,13 +3580,13 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3707,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW18" t="n">
         <v>11</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3787,19 +3854,19 @@
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3</v>
+        <v>0.299</v>
       </c>
       <c r="O19" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P19" t="n">
         <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R19" t="n">
         <v>12.3</v>
@@ -3817,37 +3884,37 @@
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
         <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,31 +3944,31 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>7</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
         <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J20" t="n">
         <v>80.3</v>
@@ -3972,28 +4039,28 @@
         <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O20" t="n">
         <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>14.4</v>
@@ -4002,7 +4069,7 @@
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,16 +4081,16 @@
         <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
@@ -4035,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4056,10 +4123,10 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
@@ -4068,13 +4135,13 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4095,7 +4162,7 @@
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.634</v>
+        <v>0.629</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,43 +4209,43 @@
         <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W21" t="n">
         <v>8.4</v>
@@ -4190,19 +4257,19 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
@@ -4223,25 +4290,25 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
         <v>53</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.726</v>
+        <v>0.736</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4333,16 +4400,16 @@
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O22" t="n">
         <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.828</v>
@@ -4357,34 +4424,34 @@
         <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4435,13 +4502,13 @@
         <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
         <v>54</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4515,16 +4582,16 @@
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O23" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="P23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.766</v>
@@ -4542,7 +4609,7 @@
         <v>23.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
         <v>6.3</v>
@@ -4563,10 +4630,10 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4587,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4620,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.403</v>
+        <v>0.394</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
@@ -4700,16 +4767,16 @@
         <v>17.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
@@ -4718,13 +4785,13 @@
         <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4736,7 +4803,7 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA24" t="n">
         <v>16.2</v>
@@ -4745,10 +4812,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4808,22 +4875,22 @@
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4987,7 +5054,7 @@
         <v>28</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4996,7 +5063,7 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>0.458</v>
+        <v>0.465</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M26" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N26" t="n">
         <v>0.357</v>
       </c>
       <c r="O26" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
         <v>11</v>
@@ -5082,7 +5149,7 @@
         <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.7</v>
@@ -5094,7 +5161,7 @@
         <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>4.2</v>
@@ -5109,10 +5176,10 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5130,16 +5197,16 @@
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>16</v>
@@ -5151,10 +5218,10 @@
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>15</v>
@@ -5166,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5330,7 +5397,7 @@
         <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5348,7 +5415,7 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,19 +5483,19 @@
         <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
         <v>17</v>
@@ -5437,25 +5504,25 @@
         <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.793</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
@@ -5464,7 +5531,7 @@
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>19.4</v>
@@ -5473,10 +5540,10 @@
         <v>104.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5515,7 +5582,7 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.375</v>
+        <v>0.366</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
         <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
         <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.786</v>
@@ -5625,10 +5692,10 @@
         <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>21.5</v>
@@ -5640,34 +5707,34 @@
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
         <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5679,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,10 +5755,10 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5718,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
         <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5789,16 +5856,16 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P30" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q30" t="n">
         <v>0.766</v>
@@ -5816,10 +5883,10 @@
         <v>22.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>6.4</v>
@@ -5828,28 +5895,28 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
@@ -5858,13 +5925,13 @@
         <v>16</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
@@ -5876,16 +5943,16 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5894,22 +5961,22 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="n">
         <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
@@ -5974,37 +6041,37 @@
         <v>18.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
@@ -6022,16 +6089,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6061,10 +6128,10 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6079,10 +6146,10 @@
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6097,7 +6164,7 @@
         <v>28</v>
       </c>
       <c r="BC31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2012-13</t>
+          <t>2013-03-29</t>
         </is>
       </c>
     </row>
